--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.914</v>
+        <v>-21.64</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.306</v>
+        <v>-20.257</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.53599999999999</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.664</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.092000000000001</v>
+        <v>5.955</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.842000000000001</v>
+        <v>6.572999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.224</v>
+        <v>7.997000000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.486</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.324</v>
+        <v>6.226</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.172</v>
+        <v>5.813</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.944</v>
+        <v>-22.01</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.840000000000001</v>
+        <v>4.670999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.023999999999999</v>
+        <v>5.003</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.824</v>
+        <v>-21.607</v>
       </c>
       <c r="B57" t="n">
-        <v>5.548</v>
+        <v>6.21</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.066</v>
+        <v>-22.5</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.694</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.343999999999999</v>
+        <v>6.804</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.256</v>
+        <v>-21.192</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-22.006</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.98</v>
+        <v>5.946</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.664</v>
+        <v>5.767</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.892</v>
+        <v>-21.536</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
